--- a/data/respirometry/shallow/final_rates/200_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/200_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.2451204295688439</v>
+        <v>-0.2301454156753101</v>
       </c>
       <c r="AB2">
-        <v>-0.009804817182753755</v>
+        <v>-939.9049591734407</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.009804817182753755</v>
+        <v>-939.9049591734407</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.2495707364472842</v>
+        <v>-0.2411818703716687</v>
       </c>
       <c r="AB3">
-        <v>-0.009982829457891368</v>
+        <v>-1619.78583777568</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.009982829457891368</v>
+        <v>-1619.78583777568</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.2075343921680361</v>
+        <v>-0.1974382945180779</v>
       </c>
       <c r="AB4">
-        <v>-0.008301375686721445</v>
+        <v>-888.2382087765857</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.008301375686721445</v>
+        <v>-888.2382087765857</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2698505783013329</v>
+        <v>-0.2479268489026971</v>
       </c>
       <c r="AB5">
-        <v>-0.01079402313205332</v>
+        <v>-980.1679035118092</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.01079402313205332</v>
+        <v>-980.1679035118092</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.1465739872250684</v>
+        <v>-0.1372768292429526</v>
       </c>
       <c r="AB6">
-        <v>-0.005862959489002736</v>
+        <v>-741.3925838402308</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.005862959489002736</v>
+        <v>-741.3925838402308</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.2323345403714601</v>
+        <v>-0.2150144987360718</v>
       </c>
       <c r="AB7">
-        <v>-0.009293381614858404</v>
+        <v>-665.206584564819</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.009293381614858404</v>
+        <v>-665.206584564819</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.002521540692051195</v>
-      </c>
-      <c r="AB8">
-        <v>-0.0001008616276820478</v>
+        <v>-0.002520887612358875</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>-0.0001008616276820478</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.1961764599011156</v>
+        <v>0.1841915542864721</v>
       </c>
       <c r="AB9">
-        <v>0.007847058396044625</v>
+        <v>752.2311700353875</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.007847058396044625</v>
+        <v>752.2311700353875</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.2340980322564619</v>
+        <v>0.2262292529711976</v>
       </c>
       <c r="AB10">
-        <v>0.009363921290258476</v>
+        <v>1519.36353876275</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.009363921290258476</v>
+        <v>1519.36353876275</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.09782620089273426</v>
+        <v>0.09306716858671635</v>
       </c>
       <c r="AB11">
-        <v>0.003913048035709371</v>
+        <v>418.6919023138361</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.003913048035709371</v>
+        <v>418.6919023138361</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.2243021047470394</v>
+        <v>0.2060789136796951</v>
       </c>
       <c r="AB12">
-        <v>0.008972084189881577</v>
+        <v>814.7239303585583</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.008972084189881577</v>
+        <v>814.7239303585583</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.2109789520595673</v>
+        <v>0.1975966003521864</v>
       </c>
       <c r="AB13">
-        <v>0.008439158082382693</v>
+        <v>1067.162280051523</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.008439158082382693</v>
+        <v>1067.162280051523</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.2286426449236321</v>
+        <v>0.2115978261748953</v>
       </c>
       <c r="AB14">
-        <v>0.009145705796945283</v>
+        <v>654.6361667634296</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.009145705796945283</v>
+        <v>654.6361667634296</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>7.270380507844973E-05</v>
-      </c>
-      <c r="AB15">
-        <v>2.908152203137989E-06</v>
+        <v>7.268497477410412E-05</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>2.908152203137989E-06</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
